--- a/src/main/resources/61-microservice-recruit-master/pf-outside_structure.xlsx
+++ b/src/main/resources/61-microservice-recruit-master/pf-outside_structure.xlsx
@@ -595,7 +595,7 @@
     <t>com.stalary.pf.outside.controller.OutsideController</t>
   </si>
   <si>
-    <t>upload(javax.servlet.http.HttpServletRequest)</t>
+    <t>upload(javax.servlet.http.HttpServletRequest,org.springframework.web.multipart.MultipartFile)</t>
   </si>
   <si>
     <t>code(java.lang.String)</t>
